--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mesh Params" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Mesh DP ID</t>
   </si>
@@ -54,6 +55,24 @@
   </si>
   <si>
     <t>Average Temp Out</t>
+  </si>
+  <si>
+    <t>Part 2 Geo</t>
+  </si>
+  <si>
+    <t>DP ID</t>
+  </si>
+  <si>
+    <t>In Dia</t>
+  </si>
+  <si>
+    <t>In 2 Angle</t>
+  </si>
+  <si>
+    <t>Massflow</t>
+  </si>
+  <si>
+    <t>OutTemp Range</t>
   </si>
 </sst>
 </file>
@@ -389,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,4 +589,163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1500</v>
+      </c>
+      <c r="G5">
+        <v>37.86</v>
+      </c>
+      <c r="H5">
+        <v>9.7046000000000007E-3</v>
+      </c>
+      <c r="I5">
+        <v>300.00200000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <f>(I5-$J$2)/$J$2</f>
+        <v>6.666666666698499E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-45</v>
+      </c>
+      <c r="F6">
+        <v>1500</v>
+      </c>
+      <c r="G6">
+        <v>53.686999999999998</v>
+      </c>
+      <c r="H6">
+        <v>7.2937000000000002E-3</v>
+      </c>
+      <c r="I6">
+        <v>300.07900000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" ref="J6:J8" si="0">(I6-$J$2)/$J$2</f>
+        <v>2.6333333333335911E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1500</v>
+      </c>
+      <c r="G7">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H7">
+        <v>4.2419399999999996E-3</v>
+      </c>
+      <c r="I7">
+        <v>299.86599999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.4666666666671518E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1600</v>
+      </c>
+      <c r="H8">
+        <v>5.6457499999999997E-3</v>
+      </c>
+      <c r="I8">
+        <v>300.00299999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999530091E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mesh Params" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Geo Params" sheetId="2" r:id="rId2"/>
+    <sheet name="Geo Params Matrix" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Mesh DP ID</t>
   </si>
@@ -73,6 +74,18 @@
   </si>
   <si>
     <t>OutTemp Range</t>
+  </si>
+  <si>
+    <t>inDia</t>
+  </si>
+  <si>
+    <t>in Angle</t>
+  </si>
+  <si>
+    <t>Mass Flow</t>
+  </si>
+  <si>
+    <t>Outlet Radius</t>
   </si>
 </sst>
 </file>
@@ -593,31 +606,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:J8"/>
+  <dimension ref="C2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I2" t="s">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -631,19 +644,22 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>6</v>
       </c>
@@ -656,21 +672,21 @@
       <c r="F5">
         <v>1500</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>37.86</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9.7046000000000007E-3</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>300.00200000000001</v>
       </c>
-      <c r="J5" s="2">
-        <f>(I5-$J$2)/$J$2</f>
+      <c r="K5" s="2">
+        <f>(J5-$K$2)/$K$2</f>
         <v>6.666666666698499E-6</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>7</v>
       </c>
@@ -683,21 +699,21 @@
       <c r="F6">
         <v>1500</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>53.686999999999998</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7.2937000000000002E-3</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>300.07900000000001</v>
       </c>
-      <c r="J6" s="2">
-        <f t="shared" ref="J6:J8" si="0">(I6-$J$2)/$J$2</f>
+      <c r="K6" s="2">
+        <f t="shared" ref="K6:K8" si="0">(J6-$K$2)/$K$2</f>
         <v>2.6333333333335911E-4</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>8</v>
       </c>
@@ -710,21 +726,24 @@
       <c r="F7">
         <v>1500</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>70.099999999999994</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4.2419399999999996E-3</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>299.86599999999999</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>-4.4666666666671518E-4</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>9</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -734,15 +753,826 @@
       <c r="F8">
         <v>1600</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5.6457499999999997E-3</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>300.00299999999999</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <f t="shared" si="0"/>
         <v>9.9999999999530091E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-22.5</v>
+      </c>
+      <c r="F11">
+        <v>1500</v>
+      </c>
+      <c r="I11">
+        <v>6.50024E-3</v>
+      </c>
+      <c r="J11">
+        <v>299.95</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>-45</v>
+      </c>
+      <c r="F12">
+        <v>1500</v>
+      </c>
+      <c r="I12">
+        <v>7.2937000000000002E-3</v>
+      </c>
+      <c r="J12">
+        <v>300.07900000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1500</v>
+      </c>
+      <c r="I13">
+        <v>9.7045900000000008E-3</v>
+      </c>
+      <c r="J13">
+        <v>300.00200000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>-22.5</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="I14">
+        <v>3.3874500000000002E-3</v>
+      </c>
+      <c r="J14">
+        <v>299.96199999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>-22.5</v>
+      </c>
+      <c r="F15">
+        <v>2000</v>
+      </c>
+      <c r="I15">
+        <v>1.07422E-2</v>
+      </c>
+      <c r="J15">
+        <v>300.01499999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>-45</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="I16">
+        <v>3.0517600000000001E-3</v>
+      </c>
+      <c r="J16">
+        <v>300.06</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="I17">
+        <v>7.6599099999999998E-3</v>
+      </c>
+      <c r="J17">
+        <v>300.00299999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>-45</v>
+      </c>
+      <c r="F18">
+        <v>2000</v>
+      </c>
+      <c r="I18">
+        <v>1.38855E-2</v>
+      </c>
+      <c r="J18">
+        <v>300.14299999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2000</v>
+      </c>
+      <c r="I19">
+        <v>1.44043E-2</v>
+      </c>
+      <c r="J19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>-22.5</v>
+      </c>
+      <c r="F22">
+        <v>1500</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <v>6.50024E-3</v>
+      </c>
+      <c r="J22">
+        <v>299.95</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0.75</v>
+      </c>
+      <c r="E23">
+        <v>-22.5</v>
+      </c>
+      <c r="F23">
+        <v>1500</v>
+      </c>
+      <c r="G23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <v>6.3171399999999997E-3</v>
+      </c>
+      <c r="J23">
+        <v>300.00599999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1.25</v>
+      </c>
+      <c r="E24">
+        <v>-22.5</v>
+      </c>
+      <c r="F24">
+        <v>1500</v>
+      </c>
+      <c r="G24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>6.0119600000000002E-3</v>
+      </c>
+      <c r="J24">
+        <v>299.91000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>-45</v>
+      </c>
+      <c r="F25">
+        <v>1500</v>
+      </c>
+      <c r="G25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <v>7.2937000000000002E-3</v>
+      </c>
+      <c r="J25">
+        <v>300.07900000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1500</v>
+      </c>
+      <c r="G26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <v>9.7045900000000008E-3</v>
+      </c>
+      <c r="J26">
+        <v>300.00200000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>-22.5</v>
+      </c>
+      <c r="F27">
+        <v>1000</v>
+      </c>
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+      <c r="I27">
+        <v>3.3874500000000002E-3</v>
+      </c>
+      <c r="J27">
+        <v>299.96199999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>-22.5</v>
+      </c>
+      <c r="F28">
+        <v>2000</v>
+      </c>
+      <c r="G28">
+        <v>0.5</v>
+      </c>
+      <c r="I28">
+        <v>1.07422E-2</v>
+      </c>
+      <c r="J28">
+        <v>300.01499999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>-22.5</v>
+      </c>
+      <c r="F29">
+        <v>1500</v>
+      </c>
+      <c r="G29">
+        <v>0.4</v>
+      </c>
+      <c r="I29">
+        <v>6.6833500000000002E-3</v>
+      </c>
+      <c r="J29">
+        <v>299.95699999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>-22.5</v>
+      </c>
+      <c r="F30">
+        <v>1500</v>
+      </c>
+      <c r="G30">
+        <v>0.6</v>
+      </c>
+      <c r="I30">
+        <v>9.3688999999999995E-3</v>
+      </c>
+      <c r="J30">
+        <v>299.94099999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>0.823948504937694</v>
+      </c>
+      <c r="E31">
+        <v>-38.344634555607499</v>
+      </c>
+      <c r="F31">
+        <v>1147.89700987538</v>
+      </c>
+      <c r="G31">
+        <v>0.42957940197507699</v>
+      </c>
+      <c r="I31">
+        <v>3.6010700000000001E-3</v>
+      </c>
+      <c r="J31">
+        <v>300.065</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>1.1760514950623</v>
+      </c>
+      <c r="E32">
+        <v>-38.344634555607499</v>
+      </c>
+      <c r="F32">
+        <v>1147.89700987538</v>
+      </c>
+      <c r="G32">
+        <v>0.42957940197507699</v>
+      </c>
+      <c r="I32">
+        <v>3.9672900000000001E-3</v>
+      </c>
+      <c r="J32">
+        <v>299.99299999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>0.823948504937694</v>
+      </c>
+      <c r="E33">
+        <v>-6.6553654443924897</v>
+      </c>
+      <c r="F33">
+        <v>1147.89700987538</v>
+      </c>
+      <c r="G33">
+        <v>0.42957940197507699</v>
+      </c>
+      <c r="I33">
+        <v>4.7302200000000003E-3</v>
+      </c>
+      <c r="J33">
+        <v>299.983</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>1.1760514950623</v>
+      </c>
+      <c r="E34">
+        <v>-6.6553654443924897</v>
+      </c>
+      <c r="F34">
+        <v>1147.89700987538</v>
+      </c>
+      <c r="G34">
+        <v>0.42957940197507699</v>
+      </c>
+      <c r="I34">
+        <v>4.1198700000000003E-3</v>
+      </c>
+      <c r="J34">
+        <v>299.98200000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>0.823948504937694</v>
+      </c>
+      <c r="E35">
+        <v>-38.344634555607499</v>
+      </c>
+      <c r="F35">
+        <v>1852.10299012461</v>
+      </c>
+      <c r="G35">
+        <v>0.42957940197507699</v>
+      </c>
+      <c r="I35">
+        <v>1.01624E-2</v>
+      </c>
+      <c r="J35">
+        <v>300.14299999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>1.1760514950623</v>
+      </c>
+      <c r="E36">
+        <v>-38.344634555607499</v>
+      </c>
+      <c r="F36">
+        <v>1852.10299012461</v>
+      </c>
+      <c r="G36">
+        <v>0.42957940197507699</v>
+      </c>
+      <c r="I36">
+        <v>1.17188E-2</v>
+      </c>
+      <c r="J36">
+        <v>300.04199999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>0.823948504937694</v>
+      </c>
+      <c r="E37">
+        <v>-6.6553654443924897</v>
+      </c>
+      <c r="F37">
+        <v>1852.10299012461</v>
+      </c>
+      <c r="G37">
+        <v>0.42957940197507699</v>
+      </c>
+      <c r="I37">
+        <v>9.3994100000000004E-3</v>
+      </c>
+      <c r="J37">
+        <v>300.02300000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>1.1760514950623</v>
+      </c>
+      <c r="E38">
+        <v>-6.6553654443924897</v>
+      </c>
+      <c r="F38">
+        <v>1852.10299012461</v>
+      </c>
+      <c r="G38">
+        <v>0.42957940197507699</v>
+      </c>
+      <c r="I38">
+        <v>8.9111299999999997E-3</v>
+      </c>
+      <c r="J38">
+        <v>299.93200000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>0.823948504937694</v>
+      </c>
+      <c r="E39">
+        <v>-38.344634555607499</v>
+      </c>
+      <c r="F39">
+        <v>1147.89700987538</v>
+      </c>
+      <c r="G39">
+        <v>0.57042059802492195</v>
+      </c>
+      <c r="I39">
+        <v>3.7231400000000002E-3</v>
+      </c>
+      <c r="J39">
+        <v>300.05</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>1.1760514950623</v>
+      </c>
+      <c r="E40">
+        <v>-38.344634555607499</v>
+      </c>
+      <c r="F40">
+        <v>1147.89700987538</v>
+      </c>
+      <c r="G40">
+        <v>0.57042059802492195</v>
+      </c>
+      <c r="I40">
+        <v>4.3029799999999997E-3</v>
+      </c>
+      <c r="J40">
+        <v>300.005</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>0.823948504937694</v>
+      </c>
+      <c r="E41">
+        <v>-6.6553654443924897</v>
+      </c>
+      <c r="F41">
+        <v>1147.89700987538</v>
+      </c>
+      <c r="G41">
+        <v>0.57042059802492195</v>
+      </c>
+      <c r="I41">
+        <v>4.8522900000000004E-3</v>
+      </c>
+      <c r="J41">
+        <v>300.01</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>1.1760514950623</v>
+      </c>
+      <c r="E42">
+        <v>-6.6553654443924897</v>
+      </c>
+      <c r="F42">
+        <v>1147.89700987538</v>
+      </c>
+      <c r="G42">
+        <v>0.57042059802492195</v>
+      </c>
+      <c r="I42">
+        <v>6.6833500000000002E-3</v>
+      </c>
+      <c r="J42">
+        <v>299.99</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>0.823948504937694</v>
+      </c>
+      <c r="E43">
+        <v>-38.344634555607499</v>
+      </c>
+      <c r="F43">
+        <v>1852.10299012461</v>
+      </c>
+      <c r="G43">
+        <v>0.57042059802492195</v>
+      </c>
+      <c r="I43">
+        <v>9.7656300000000008E-3</v>
+      </c>
+      <c r="J43">
+        <v>300.11799999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>1.1760514950623</v>
+      </c>
+      <c r="E44">
+        <v>-38.344634555607499</v>
+      </c>
+      <c r="F44">
+        <v>1852.10299012461</v>
+      </c>
+      <c r="G44">
+        <v>0.57042059802492195</v>
+      </c>
+      <c r="I44">
+        <v>1.08643E-2</v>
+      </c>
+      <c r="J44">
+        <v>300.03300000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>0.823948504937694</v>
+      </c>
+      <c r="E45">
+        <v>-6.6553654443924897</v>
+      </c>
+      <c r="F45">
+        <v>1852.10299012461</v>
+      </c>
+      <c r="G45">
+        <v>0.57042059802492195</v>
+      </c>
+      <c r="I45">
+        <v>8.5449199999999993E-3</v>
+      </c>
+      <c r="J45">
+        <v>300.01499999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46">
+        <v>1.1760514950623</v>
+      </c>
+      <c r="E46">
+        <v>-6.6553654443924897</v>
+      </c>
+      <c r="F46">
+        <v>1852.10299012461</v>
+      </c>
+      <c r="G46">
+        <v>0.57042059802492195</v>
+      </c>
+      <c r="I46">
+        <v>7.3547400000000002E-3</v>
+      </c>
+      <c r="J46">
+        <v>299.92099999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
